--- a/Planejador_projeto_DentalClinic.xlsx
+++ b/Planejador_projeto_DentalClinic.xlsx
@@ -54,12 +54,6 @@
     <t>ATIVIDADE</t>
   </si>
   <si>
-    <t>Atividade 02</t>
-  </si>
-  <si>
-    <t>Atividade 03</t>
-  </si>
-  <si>
     <t>Atividade 04</t>
   </si>
   <si>
@@ -250,6 +244,12 @@
   </si>
   <si>
     <t>Tela Início</t>
+  </si>
+  <si>
+    <t>Tela Login</t>
+  </si>
+  <si>
+    <t>Tela Cadastro</t>
   </si>
 </sst>
 </file>
@@ -646,6 +646,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -655,9 +667,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -672,15 +681,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1094,7 +1094,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1125,76 +1125,76 @@
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="15">
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="29" t="s">
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="25" t="s">
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="F3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="36" t="s">
+      <c r="G3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>33</v>
-      </c>
       <c r="H3" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -1217,7 +1217,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="35"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -1406,13 +1406,13 @@
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
@@ -1426,19 +1426,19 @@
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
       <c r="D6" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E6" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
@@ -1446,19 +1446,19 @@
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
-        <v>4</v>
-      </c>
       <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7">
         <v>2</v>
-      </c>
-      <c r="F7" s="7">
-        <v>5</v>
       </c>
       <c r="G7" s="8">
         <v>0.35</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="7">
         <v>4</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" s="7">
         <v>4</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="7">
         <v>5</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="7">
         <v>6</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="9">
         <v>6</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="7">
         <v>9</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7">
         <v>9</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="7">
         <v>9</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="7">
         <v>9</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>10</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
         <v>11</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="7">
         <v>12</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
         <v>12</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="7">
         <v>14</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>14</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="7">
         <v>14</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="7">
         <v>15</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" s="7">
         <v>15</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="7">
         <v>15</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>16</v>
@@ -1926,17 +1926,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AP2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">
@@ -2024,18 +2024,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Planejador_projeto_DentalClinic.xlsx
+++ b/Planejador_projeto_DentalClinic.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Planejador de Projetos</t>
   </si>
@@ -52,18 +52,6 @@
   </si>
   <si>
     <t>ATIVIDADE</t>
-  </si>
-  <si>
-    <t>Atividade 04</t>
-  </si>
-  <si>
-    <t>Atividade 05</t>
-  </si>
-  <si>
-    <t>Atividade 06</t>
-  </si>
-  <si>
-    <t>Atividade 07</t>
   </si>
   <si>
     <t>Atividade 08</t>
@@ -237,19 +225,34 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t>At.</t>
-  </si>
-  <si>
-    <t>Atividade</t>
-  </si>
-  <si>
-    <t>Tela Início</t>
-  </si>
-  <si>
     <t>Tela Login</t>
   </si>
   <si>
-    <t>Tela Cadastro</t>
+    <t>NavBar</t>
+  </si>
+  <si>
+    <t>Barra de Navegação</t>
+  </si>
+  <si>
+    <t>Sec</t>
+  </si>
+  <si>
+    <t>Seção</t>
+  </si>
+  <si>
+    <t>Sec Home</t>
+  </si>
+  <si>
+    <t>Sec Sobre</t>
+  </si>
+  <si>
+    <t>Sec Serviços</t>
+  </si>
+  <si>
+    <t>Sec Avaliações</t>
+  </si>
+  <si>
+    <t>Sec Contato</t>
   </si>
 </sst>
 </file>
@@ -646,6 +649,33 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -654,33 +684,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1094,7 +1097,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1125,76 +1128,76 @@
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="15">
+        <v>4</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="15">
-        <v>1</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="32" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="27" t="s">
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="H3" s="21" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>32</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -1217,7 +1220,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -1406,7 +1409,7 @@
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1418,24 +1421,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8">
         <v>1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
         <v>2</v>
       </c>
       <c r="E6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="7">
         <v>2</v>
@@ -1446,99 +1449,99 @@
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
         <v>2</v>
       </c>
       <c r="E7" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" s="7">
         <v>2</v>
       </c>
       <c r="G7" s="8">
-        <v>0.35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E8" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8" s="8">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7">
         <v>2</v>
       </c>
       <c r="E9" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G9" s="8">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C10" s="7">
         <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="7">
         <v>4</v>
       </c>
       <c r="F10" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10" s="8">
-        <v>0.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="8">
         <v>0.5</v>
@@ -1546,7 +1549,7 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -1558,7 +1561,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12" s="8">
         <v>0.6</v>
@@ -1566,7 +1569,7 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C13" s="7">
         <v>5</v>
@@ -1578,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G13" s="8">
         <v>0.75</v>
@@ -1586,7 +1589,7 @@
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" s="7">
         <v>6</v>
@@ -1598,7 +1601,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G14" s="8">
         <v>1</v>
@@ -1606,7 +1609,7 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C15" s="9">
         <v>6</v>
@@ -1618,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8">
         <v>0.6</v>
@@ -1626,7 +1629,7 @@
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C16" s="7">
         <v>9</v>
@@ -1638,7 +1641,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8">
         <v>0</v>
@@ -1646,7 +1649,7 @@
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C17" s="7">
         <v>9</v>
@@ -1658,7 +1661,7 @@
         <v>9</v>
       </c>
       <c r="F17" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G17" s="8">
         <v>0.5</v>
@@ -1666,7 +1669,7 @@
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18" s="7">
         <v>9</v>
@@ -1678,7 +1681,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="8">
         <v>0</v>
@@ -1686,7 +1689,7 @@
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
         <v>9</v>
@@ -1698,7 +1701,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G19" s="8">
         <v>0.01</v>
@@ -1706,7 +1709,7 @@
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C20" s="7">
         <v>10</v>
@@ -1718,7 +1721,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20" s="8">
         <v>0.8</v>
@@ -1726,7 +1729,7 @@
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C21" s="7">
         <v>11</v>
@@ -1738,7 +1741,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G21" s="8">
         <v>0</v>
@@ -1746,7 +1749,7 @@
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C22" s="7">
         <v>12</v>
@@ -1758,7 +1761,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G22" s="8">
         <v>0</v>
@@ -1766,7 +1769,7 @@
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C23" s="7">
         <v>12</v>
@@ -1778,7 +1781,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G23" s="8">
         <v>0</v>
@@ -1786,7 +1789,7 @@
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C24" s="7">
         <v>14</v>
@@ -1798,7 +1801,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G24" s="8">
         <v>0</v>
@@ -1806,7 +1809,7 @@
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
         <v>14</v>
@@ -1818,7 +1821,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="8">
         <v>0.44</v>
@@ -1826,7 +1829,7 @@
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C26" s="7">
         <v>14</v>
@@ -1838,7 +1841,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" s="8">
         <v>0</v>
@@ -1846,7 +1849,7 @@
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C27" s="7">
         <v>15</v>
@@ -1858,7 +1861,7 @@
         <v>15</v>
       </c>
       <c r="F27" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G27" s="8">
         <v>0.12</v>
@@ -1866,7 +1869,7 @@
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C28" s="7">
         <v>15</v>
@@ -1878,7 +1881,7 @@
         <v>15</v>
       </c>
       <c r="F28" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G28" s="8">
         <v>0.05</v>
@@ -1886,7 +1889,7 @@
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>15</v>
@@ -1898,7 +1901,7 @@
         <v>15</v>
       </c>
       <c r="F29" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G29" s="8">
         <v>0</v>
@@ -1906,7 +1909,7 @@
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C30" s="7">
         <v>16</v>
@@ -1918,7 +1921,7 @@
         <v>16</v>
       </c>
       <c r="F30" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G30" s="8">
         <v>0.5</v>
@@ -1926,17 +1929,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AP2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">
@@ -2010,10 +2013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,18 +2027,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
